--- a/tech_school_backend/hours_app/download_files/out.xlsx
+++ b/tech_school_backend/hours_app/download_files/out.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
-    <t>Преподователь</t>
+    <t>Преподаватель</t>
   </si>
   <si>
     <t>в рабочее время</t>
@@ -25,7 +25,7 @@
     <t>в личное время</t>
   </si>
   <si>
-    <t>итого за год</t>
+    <t>ИТОГО за год</t>
   </si>
   <si>
     <t xml:space="preserve"> Иванов Иван Иванович</t>
@@ -426,10 +426,10 @@
         <v>4</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5">
